--- a/documentation/arbeitsplan.xlsx
+++ b/documentation/arbeitsplan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -146,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -176,8 +176,77 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="7"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="42"/>
+      <color theme="7"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,8 +265,43 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="7"/>
+        <bgColor theme="7" tint="0.59996337778862885"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="7"/>
+        <bgColor theme="9" tint="0.59996337778862885"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -270,9 +374,114 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="7" applyFill="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="8" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -342,8 +551,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="20">
+    <cellStyle name="% abgeschlossen" xfId="17"/>
+    <cellStyle name="Aktivität" xfId="3"/>
+    <cellStyle name="Bezeichnung" xfId="6"/>
+    <cellStyle name="Erklärender Text 2" xfId="13"/>
+    <cellStyle name="Legende &quot;Tatsächlich&quot;" xfId="16"/>
+    <cellStyle name="Legende zu &quot;% abgeschlossen (hinter dem Plan)&quot;" xfId="19"/>
+    <cellStyle name="Legende zu &quot;tatsächlich (hinter dem Plan)&quot;" xfId="18"/>
+    <cellStyle name="Planlegende" xfId="15"/>
+    <cellStyle name="Projektüberschriften" xfId="5"/>
+    <cellStyle name="Prozent abgeschlossen" xfId="7"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1"/>
+    <cellStyle name="Steuerelement zum Hervorheben von Zeiträumen" xfId="8"/>
+    <cellStyle name="Überschrift 1 2" xfId="2"/>
+    <cellStyle name="Überschrift 2 2" xfId="10"/>
+    <cellStyle name="Überschrift 3 2" xfId="11"/>
+    <cellStyle name="Überschrift 4 2" xfId="12"/>
+    <cellStyle name="Überschrift 5" xfId="9"/>
+    <cellStyle name="Überschriften für Zeiträume" xfId="4"/>
+    <cellStyle name="Zeitraumwert" xfId="14"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -648,7 +876,7 @@
   <dimension ref="B1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -738,11 +966,11 @@
         <v>5.5</v>
       </c>
       <c r="G7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="7">
         <f>IF(G7="","",SUM($F$7:F7)-SUM($G$7:G7))</f>
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="I7" s="3">
         <f>F7/$E$3</f>
@@ -752,7 +980,7 @@
         <v>43333</v>
       </c>
       <c r="K7" s="14">
-        <v>43361</v>
+        <v>43368</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
@@ -764,28 +992,28 @@
         <v>17</v>
       </c>
       <c r="E8" s="6">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F8" s="7">
-        <f t="shared" ref="F8:F25" si="0">MROUND(E8*1.2*1.1,0.5)</f>
-        <v>24</v>
+        <f>MROUND(E8*1.2*1.1,0.5)</f>
+        <v>10.5</v>
       </c>
       <c r="G8" s="7">
         <v>4</v>
       </c>
       <c r="H8" s="7">
         <f>IF(G8="","",SUM($F$7:F8)-SUM($G$7:G8))</f>
-        <v>24.5</v>
+        <v>10</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" ref="I8:I25" si="1">F8/$E$3</f>
-        <v>8</v>
+        <f t="shared" ref="I8:I25" si="0">F8/$E$3</f>
+        <v>3.5</v>
       </c>
       <c r="J8" s="14">
         <v>43333</v>
       </c>
       <c r="K8" s="14">
-        <v>43330</v>
+        <v>43361</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
@@ -802,7 +1030,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F8:F25" si="1">MROUND(E9*1.2*1.1,0.5)</f>
         <v>2.5</v>
       </c>
       <c r="G9" s="7"/>
@@ -811,7 +1039,7 @@
         <v/>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="J9" s="14"/>
@@ -829,7 +1057,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="G10" s="7"/>
@@ -838,7 +1066,7 @@
         <v/>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="J10" s="14"/>
@@ -856,7 +1084,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
       <c r="G11" s="7"/>
@@ -865,7 +1093,7 @@
         <v/>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="J11" s="14"/>
@@ -883,7 +1111,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="G12" s="7"/>
@@ -892,7 +1120,7 @@
         <v/>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="J12" s="14"/>
@@ -910,7 +1138,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
@@ -919,7 +1147,7 @@
         <v/>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="J13" s="14"/>
@@ -939,7 +1167,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G14" s="7"/>
@@ -948,7 +1176,7 @@
         <v/>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="J14" s="14"/>
@@ -966,7 +1194,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
       <c r="G15" s="7"/>
@@ -975,7 +1203,7 @@
         <v/>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="J15" s="14"/>
@@ -993,13 +1221,13 @@
         <v>8</v>
       </c>
       <c r="F16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="J16" s="14"/>
@@ -1017,13 +1245,13 @@
         <v>4</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="J17" s="14"/>
@@ -1041,13 +1269,13 @@
         <v>6</v>
       </c>
       <c r="F18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="J18" s="14"/>
@@ -1065,13 +1293,13 @@
         <v>6</v>
       </c>
       <c r="F19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="J19" s="14"/>
@@ -1089,13 +1317,13 @@
         <v>4</v>
       </c>
       <c r="F20" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="J20" s="14"/>
@@ -1113,7 +1341,7 @@
         <v>5</v>
       </c>
       <c r="F21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
       <c r="G21" s="7"/>
@@ -1122,7 +1350,7 @@
         <v/>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="J21" s="14"/>
@@ -1140,7 +1368,7 @@
         <v>6</v>
       </c>
       <c r="F22" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G22" s="7"/>
@@ -1149,7 +1377,7 @@
         <v/>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="J22" s="14"/>
@@ -1169,7 +1397,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
       <c r="G23" s="7"/>
@@ -1178,7 +1406,7 @@
         <v/>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="J23" s="15"/>
@@ -1196,7 +1424,7 @@
         <v>4</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
       <c r="G24" s="7"/>
@@ -1205,7 +1433,7 @@
         <v/>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="J24" s="15"/>
@@ -1223,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
       <c r="G25" s="7"/>
@@ -1232,7 +1460,7 @@
         <v/>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="J25" s="15"/>
@@ -1254,20 +1482,20 @@
       </c>
       <c r="E27" s="11">
         <f>SUM(E7:E26)</f>
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F27" s="9">
         <f>SUM(F7:F26)</f>
-        <v>123</v>
+        <v>109.5</v>
       </c>
       <c r="G27" s="9">
         <f>SUM(G7:G26)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="12">
         <f>SUM(I7:I26)</f>
-        <v>41.000000000000007</v>
+        <v>36.500000000000007</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="15" x14ac:dyDescent="0.2">

--- a/documentation/arbeitsplan.xlsx
+++ b/documentation/arbeitsplan.xlsx
@@ -876,7 +876,7 @@
   <dimension ref="B1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -966,11 +966,11 @@
         <v>5.5</v>
       </c>
       <c r="G7" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7" s="7">
         <f>IF(G7="","",SUM($F$7:F7)-SUM($G$7:G7))</f>
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="I7" s="3">
         <f>F7/$E$3</f>
@@ -999,11 +999,11 @@
         <v>10.5</v>
       </c>
       <c r="G8" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H8" s="7">
         <f>IF(G8="","",SUM($F$7:F8)-SUM($G$7:G8))</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" ref="I8:I25" si="0">F8/$E$3</f>
@@ -1027,11 +1027,11 @@
         <v>18</v>
       </c>
       <c r="E9" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" ref="F8:F25" si="1">MROUND(E9*1.2*1.1,0.5)</f>
-        <v>2.5</v>
+        <f t="shared" ref="F9:F25" si="1">MROUND(E9*1.2*1.1,0.5)</f>
+        <v>5.5</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="str">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="I9" s="3">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
@@ -1054,11 +1054,11 @@
         <v>19</v>
       </c>
       <c r="E10" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="str">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
@@ -1081,11 +1081,11 @@
         <v>20</v>
       </c>
       <c r="E11" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="str">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="I11" s="3">
         <f t="shared" si="0"/>
-        <v>1.8333333333333333</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
@@ -1108,11 +1108,11 @@
         <v>21</v>
       </c>
       <c r="E12" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="str">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="I12" s="3">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
@@ -1135,11 +1135,11 @@
         <v>22</v>
       </c>
       <c r="E13" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" s="7">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="str">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="I13" s="3">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
@@ -1164,11 +1164,11 @@
         <v>23</v>
       </c>
       <c r="E14" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="str">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="15"/>
@@ -1191,11 +1191,11 @@
         <v>24</v>
       </c>
       <c r="E15" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F15" s="7">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="str">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" si="0"/>
-        <v>1.8333333333333333</v>
+        <v>3.5</v>
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="15"/>
@@ -1314,17 +1314,17 @@
         <v>31</v>
       </c>
       <c r="E20" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F20" s="7">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="3">
         <f t="shared" si="0"/>
-        <v>1.8333333333333333</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="J20" s="14"/>
       <c r="K20" s="15"/>
@@ -1338,11 +1338,11 @@
         <v>25</v>
       </c>
       <c r="E21" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F21" s="7">
         <f t="shared" si="1"/>
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="str">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="I21" s="3">
         <f t="shared" si="0"/>
-        <v>2.1666666666666665</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="15"/>
@@ -1365,11 +1365,11 @@
         <v>26</v>
       </c>
       <c r="E22" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F22" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7" t="str">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I22" s="3">
         <f t="shared" si="0"/>
-        <v>2.6666666666666665</v>
+        <v>3.5</v>
       </c>
       <c r="J22" s="14"/>
       <c r="K22" s="15"/>
@@ -1482,20 +1482,20 @@
       </c>
       <c r="E27" s="11">
         <f>SUM(E7:E26)</f>
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="F27" s="9">
         <f>SUM(F7:F26)</f>
-        <v>109.5</v>
+        <v>139</v>
       </c>
       <c r="G27" s="9">
         <f>SUM(G7:G26)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="12">
         <f>SUM(I7:I26)</f>
-        <v>36.500000000000007</v>
+        <v>46.333333333333343</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="15" x14ac:dyDescent="0.2">

--- a/documentation/arbeitsplan.xlsx
+++ b/documentation/arbeitsplan.xlsx
@@ -876,7 +876,7 @@
   <dimension ref="B1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/documentation/arbeitsplan.xlsx
+++ b/documentation/arbeitsplan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elias.Tonini\Documents\GitHub\tnt\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elias.Tonini\Documents\git\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -875,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1033,17 +1033,23 @@
         <f t="shared" ref="F9:F25" si="1">MROUND(E9*1.2*1.1,0.5)</f>
         <v>5.5</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="str">
+      <c r="G9" s="7">
+        <v>4</v>
+      </c>
+      <c r="H9" s="7">
         <f>IF(G9="","",SUM($F$7:F9)-SUM($G$7:G9))</f>
-        <v/>
+        <v>5.5</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="0"/>
         <v>1.8333333333333333</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
+      <c r="J9" s="14">
+        <v>43415</v>
+      </c>
+      <c r="K9" s="14">
+        <v>43473</v>
+      </c>
     </row>
     <row r="10" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B10" s="21"/>
@@ -1060,17 +1066,23 @@
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7" t="str">
+      <c r="G10" s="7">
+        <v>4</v>
+      </c>
+      <c r="H10" s="7">
         <f>IF(G10="","",SUM($F$7:F10)-SUM($G$7:G10))</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
         <v>1.8333333333333333</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
+      <c r="J10" s="14">
+        <v>43415</v>
+      </c>
+      <c r="K10" s="14">
+        <v>43473</v>
+      </c>
     </row>
     <row r="11" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B11" s="21"/>
@@ -1087,17 +1099,23 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7" t="str">
+      <c r="G11" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="H11" s="7">
         <f>IF(G11="","",SUM($F$7:F11)-SUM($G$7:G11))</f>
-        <v/>
+        <v>9.5</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="0"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+      <c r="J11" s="14">
+        <v>43415</v>
+      </c>
+      <c r="K11" s="14">
+        <v>43473</v>
+      </c>
     </row>
     <row r="12" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B12" s="21"/>
@@ -1114,17 +1132,23 @@
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7" t="str">
+      <c r="G12" s="7">
+        <v>7</v>
+      </c>
+      <c r="H12" s="7">
         <f>IF(G12="","",SUM($F$7:F12)-SUM($G$7:G12))</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="0"/>
         <v>1.8333333333333333</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
+      <c r="J12" s="14">
+        <v>43415</v>
+      </c>
+      <c r="K12" s="14">
+        <v>43473</v>
+      </c>
     </row>
     <row r="13" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B13" s="22"/>
@@ -1141,17 +1165,23 @@
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="str">
+      <c r="G13" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="H13" s="7">
         <f>IF(G13="","",SUM($F$7:F13)-SUM($G$7:G13))</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="0"/>
         <v>1.8333333333333333</v>
       </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
+      <c r="J13" s="14">
+        <v>43415</v>
+      </c>
+      <c r="K13" s="14">
+        <v>43473</v>
+      </c>
     </row>
     <row r="14" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B14" s="23" t="s">
@@ -1170,17 +1200,23 @@
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7" t="str">
+      <c r="G14" s="7">
+        <v>3</v>
+      </c>
+      <c r="H14" s="7">
         <f>IF(G14="","",SUM($F$7:F14)-SUM($G$7:G14))</f>
-        <v/>
+        <v>9.5</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15"/>
+      <c r="J14" s="14">
+        <v>43480</v>
+      </c>
+      <c r="K14" s="14">
+        <v>43480</v>
+      </c>
     </row>
     <row r="15" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B15" s="25"/>
@@ -1197,17 +1233,23 @@
         <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7" t="str">
+      <c r="G15" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="H15" s="7">
         <f>IF(G15="","",SUM($F$7:F15)-SUM($G$7:G15))</f>
-        <v/>
+        <v>10.5</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15"/>
+      <c r="J15" s="14">
+        <v>43515</v>
+      </c>
+      <c r="K15" s="14">
+        <v>43550</v>
+      </c>
     </row>
     <row r="16" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B16" s="25"/>
@@ -1224,14 +1266,23 @@
         <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="G16" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="H16" s="7">
+        <f>IF(G16="","",SUM($F$7:F16)-SUM($G$7:G16))</f>
+        <v>10.5</v>
+      </c>
       <c r="I16" s="3">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="15"/>
+      <c r="J16" s="14">
+        <v>43515</v>
+      </c>
+      <c r="K16" s="14">
+        <v>43529</v>
+      </c>
     </row>
     <row r="17" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B17" s="25"/>
@@ -1249,13 +1300,18 @@
         <v>5.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="H17" s="7" t="str">
+        <f>IF(G17="","",SUM($F$7:F17)-SUM($G$7:G17))</f>
+        <v/>
+      </c>
       <c r="I17" s="3">
         <f t="shared" si="0"/>
         <v>1.8333333333333333</v>
       </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="15"/>
+      <c r="J17" s="14">
+        <v>43522</v>
+      </c>
+      <c r="K17" s="14"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B18" s="25"/>
@@ -1273,7 +1329,10 @@
         <v>8</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="H18" s="7" t="str">
+        <f>IF(G18="","",SUM($F$7:F18)-SUM($G$7:G18))</f>
+        <v/>
+      </c>
       <c r="I18" s="3">
         <f t="shared" si="0"/>
         <v>2.6666666666666665</v>
@@ -1297,7 +1356,10 @@
         <v>8</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="H19" s="7" t="str">
+        <f>IF(G19="","",SUM($F$7:F19)-SUM($G$7:G19))</f>
+        <v/>
+      </c>
       <c r="I19" s="3">
         <f t="shared" si="0"/>
         <v>2.6666666666666665</v>
@@ -1321,7 +1383,10 @@
         <v>8</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="H20" s="7" t="str">
+        <f>IF(G20="","",SUM($F$7:F20)-SUM($G$7:G20))</f>
+        <v/>
+      </c>
       <c r="I20" s="3">
         <f t="shared" si="0"/>
         <v>2.6666666666666665</v>
@@ -1490,7 +1555,7 @@
       </c>
       <c r="G27" s="9">
         <f>SUM(G7:G26)</f>
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="12">
